--- a/data/trans_orig/P57GLOBAL_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>222160</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>209201</v>
+        <v>208912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>232817</v>
+        <v>234372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8162463873652674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.768631452310773</v>
+        <v>0.7675704563066547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8554017711180765</v>
+        <v>0.8611143166316475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>221</v>
@@ -765,19 +765,19 @@
         <v>237442</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>227609</v>
+        <v>227123</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>245373</v>
+        <v>245512</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9103044943662908</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.872607006871334</v>
+        <v>0.870743666633361</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9407122294559879</v>
+        <v>0.941242477380782</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>438</v>
@@ -786,19 +786,19 @@
         <v>459602</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>442348</v>
+        <v>442481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>473097</v>
+        <v>475005</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8622753519127595</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8299032527048031</v>
+        <v>0.8301534468058215</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8875938766083769</v>
+        <v>0.8911727154635894</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>50013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39356</v>
+        <v>37801</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62972</v>
+        <v>63261</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1837536126347326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1445982288819235</v>
+        <v>0.138885683368353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2313685476892269</v>
+        <v>0.2324295436933453</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -836,19 +836,19 @@
         <v>23396</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15465</v>
+        <v>15326</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33229</v>
+        <v>33715</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08969550563370918</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05928777054401201</v>
+        <v>0.05875752261921771</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1273929931286638</v>
+        <v>0.1292563333666387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -857,19 +857,19 @@
         <v>73409</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59914</v>
+        <v>58006</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90663</v>
+        <v>90530</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1377246480872405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1124061233916231</v>
+        <v>0.1088272845364106</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1700967472951968</v>
+        <v>0.1698465531941784</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>307842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>285608</v>
+        <v>285039</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>328805</v>
+        <v>329457</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6279427156494003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5825889807400869</v>
+        <v>0.5814284758111182</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6707025071560998</v>
+        <v>0.672033002798087</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>346</v>
@@ -982,19 +982,19 @@
         <v>350153</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>331274</v>
+        <v>332006</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>371645</v>
+        <v>369784</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6948189413041213</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6573564687744499</v>
+        <v>0.6588084283571699</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7374646625007321</v>
+        <v>0.7337723105076907</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>638</v>
@@ -1003,19 +1003,19 @@
         <v>657995</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>624991</v>
+        <v>627931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>686340</v>
+        <v>685631</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6618419309829933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6286449979171694</v>
+        <v>0.6316015081559638</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6903527407594018</v>
+        <v>0.6896393980138614</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>182397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>161434</v>
+        <v>160782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>204631</v>
+        <v>205200</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3720572843505997</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3292974928439003</v>
+        <v>0.3279669972019127</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4174110192599135</v>
+        <v>0.4185715241888817</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>153</v>
@@ -1053,19 +1053,19 @@
         <v>153796</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>132304</v>
+        <v>134165</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>172675</v>
+        <v>171943</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3051810586958787</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2625353374992682</v>
+        <v>0.2662276894923094</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3426435312255501</v>
+        <v>0.34119157164283</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>324</v>
@@ -1074,19 +1074,19 @@
         <v>336193</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>307848</v>
+        <v>308557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>369197</v>
+        <v>366257</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3381580690170068</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3096472592405984</v>
+        <v>0.310360601986139</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3713550020828306</v>
+        <v>0.3683984918440364</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>204739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>187801</v>
+        <v>186420</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221941</v>
+        <v>221216</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6421260406759003</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5890026789015533</v>
+        <v>0.5846696982867085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6960762602136175</v>
+        <v>0.6938016271582917</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>196</v>
@@ -1199,19 +1199,19 @@
         <v>195801</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>178050</v>
+        <v>175819</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>215294</v>
+        <v>212802</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5837624973003602</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5308395087916348</v>
+        <v>0.5241880560772559</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6418805091621659</v>
+        <v>0.634450105257145</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>394</v>
@@ -1220,19 +1220,19 @@
         <v>400540</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>374552</v>
+        <v>368546</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>425209</v>
+        <v>421293</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6122053740385005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5724831224295547</v>
+        <v>0.5633041107303538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6499102847176823</v>
+        <v>0.6439248519960031</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>114107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96905</v>
+        <v>97630</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131045</v>
+        <v>132426</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3578739593240997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3039237397863825</v>
+        <v>0.3061983728417083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4109973210984465</v>
+        <v>0.4153303017132915</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>139</v>
@@ -1270,19 +1270,19 @@
         <v>139611</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>120118</v>
+        <v>122610</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157362</v>
+        <v>159593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4162375026996398</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3581194908378344</v>
+        <v>0.3655498947428548</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4691604912083652</v>
+        <v>0.4758119439227438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>251</v>
@@ -1291,19 +1291,19 @@
         <v>253718</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>229049</v>
+        <v>232965</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>279706</v>
+        <v>285712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3877946259614994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3500897152823177</v>
+        <v>0.3560751480039968</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4275168775704454</v>
+        <v>0.4366958892696461</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>259978</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>242521</v>
+        <v>242350</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>275791</v>
+        <v>275469</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7248378493141571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.67616521959853</v>
+        <v>0.6756875417369028</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7689251595141273</v>
+        <v>0.7680280626211771</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>272</v>
@@ -1416,19 +1416,19 @@
         <v>264646</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>247800</v>
+        <v>247899</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>280340</v>
+        <v>280693</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7124556982983705</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6671048034235826</v>
+        <v>0.6673707857003782</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7547069792070422</v>
+        <v>0.7556571271526742</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>536</v>
@@ -1437,19 +1437,19 @@
         <v>524624</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>500716</v>
+        <v>500301</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>547551</v>
+        <v>548397</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7185383652935671</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.685792390827507</v>
+        <v>0.6852247192480094</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7499395136276722</v>
+        <v>0.7510985103556177</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>98693</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82880</v>
+        <v>83202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116150</v>
+        <v>116321</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2751621506858429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2310748404858727</v>
+        <v>0.231971937378823</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3238347804014702</v>
+        <v>0.3243124582630972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>112</v>
@@ -1487,19 +1487,19 @@
         <v>106810</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91116</v>
+        <v>90763</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123656</v>
+        <v>123557</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2875443017016295</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2452930207929578</v>
+        <v>0.2443428728473252</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3328951965764172</v>
+        <v>0.3326292142996214</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>210</v>
@@ -1508,19 +1508,19 @@
         <v>205503</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>182576</v>
+        <v>181730</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>229411</v>
+        <v>229826</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.281461634706433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2500604863723279</v>
+        <v>0.2489014896443836</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.314207609172493</v>
+        <v>0.3147752807519906</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>164866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>152622</v>
+        <v>152085</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>176695</v>
+        <v>174983</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8109196638186543</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7506942753637816</v>
+        <v>0.7480507845910549</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8690982944112382</v>
+        <v>0.8606791403645255</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>169</v>
@@ -1633,19 +1633,19 @@
         <v>178888</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167602</v>
+        <v>168668</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>187522</v>
+        <v>187262</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8655582291109926</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8109524243310273</v>
+        <v>0.8161097132094798</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9073343489408412</v>
+        <v>0.9060768174828234</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>338</v>
@@ -1654,19 +1654,19 @@
         <v>343754</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>328640</v>
+        <v>327555</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>357471</v>
+        <v>358553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8384631777203818</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8015983035977573</v>
+        <v>0.7989522197688977</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.871921837273768</v>
+        <v>0.8745610181133359</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>38442</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26613</v>
+        <v>28325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50686</v>
+        <v>51223</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1890803361813456</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1309017055887617</v>
+        <v>0.1393208596354744</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2493057246362183</v>
+        <v>0.2519492154089449</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1704,19 +1704,19 @@
         <v>27785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19151</v>
+        <v>19411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39071</v>
+        <v>38005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1344417708890074</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09266565105915887</v>
+        <v>0.09392318251717659</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1890475756689727</v>
+        <v>0.1838902867905202</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>65</v>
@@ -1725,19 +1725,19 @@
         <v>66227</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>52510</v>
+        <v>51428</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>81341</v>
+        <v>82426</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1615368222796182</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1280781627262321</v>
+        <v>0.1254389818866642</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.198401696402243</v>
+        <v>0.2010477802311027</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>193853</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>180203</v>
+        <v>179128</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>208771</v>
+        <v>207992</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7158252797051148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6654194211774713</v>
+        <v>0.66145077942609</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7709111928767048</v>
+        <v>0.7680340403909274</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>198</v>
@@ -1850,19 +1850,19 @@
         <v>204735</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189710</v>
+        <v>191229</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>218376</v>
+        <v>219635</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7360772193278766</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.682057355953098</v>
+        <v>0.6875169951959879</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7851187963835249</v>
+        <v>0.7896442381097803</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>391</v>
@@ -1871,19 +1871,19 @@
         <v>398589</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>376545</v>
+        <v>378172</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>420332</v>
+        <v>418476</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7260865132368504</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6859304801986326</v>
+        <v>0.6888945451612803</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7656945105292678</v>
+        <v>0.7623135140692242</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>76958</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62040</v>
+        <v>62819</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>90608</v>
+        <v>91683</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2841747202948852</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.229088807123295</v>
+        <v>0.2319659596090725</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3345805788225287</v>
+        <v>0.33854922057391</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -1921,19 +1921,19 @@
         <v>73409</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>59768</v>
+        <v>58509</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>88434</v>
+        <v>86915</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2639227806721234</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2148812036164751</v>
+        <v>0.2103557618902196</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.317942644046902</v>
+        <v>0.312483004804012</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>145</v>
@@ -1942,19 +1942,19 @@
         <v>150366</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>128623</v>
+        <v>130479</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>172410</v>
+        <v>170783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2739134867631496</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2343054894707321</v>
+        <v>0.2376864859307758</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3140695198013671</v>
+        <v>0.3111054548387197</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>332189</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>303571</v>
+        <v>305208</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>357364</v>
+        <v>356580</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5401203072326085</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.493588986313435</v>
+        <v>0.4962521485863888</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5810545833998549</v>
+        <v>0.579778650070467</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>307</v>
@@ -2067,19 +2067,19 @@
         <v>318018</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>293202</v>
+        <v>292829</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>342993</v>
+        <v>343651</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4990554087757268</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4601131623091097</v>
+        <v>0.4595273470366565</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5382480105609003</v>
+        <v>0.5392809016217333</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>632</v>
@@ -2088,19 +2088,19 @@
         <v>650206</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>616188</v>
+        <v>614661</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>685149</v>
+        <v>684484</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5192236649344135</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4920585940380041</v>
+        <v>0.4908390002298025</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5471274365325508</v>
+        <v>0.5465964430011212</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>282838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>257663</v>
+        <v>258447</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>311456</v>
+        <v>309819</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4598796927673915</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4189454166001452</v>
+        <v>0.420221349929533</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.506411013686565</v>
+        <v>0.5037478514136114</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>313</v>
@@ -2138,19 +2138,19 @@
         <v>319221</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>294246</v>
+        <v>293588</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>344037</v>
+        <v>344410</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5009445912242732</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4617519894390999</v>
+        <v>0.4607190983782667</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.539886837690891</v>
+        <v>0.5404726529633433</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>586</v>
@@ -2159,19 +2159,19 @@
         <v>602060</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>567117</v>
+        <v>567782</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>636078</v>
+        <v>637605</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4807763350655865</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4528725634674491</v>
+        <v>0.453403556998879</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5079414059619959</v>
+        <v>0.5091609997701981</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>617733</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>593015</v>
+        <v>595352</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>636199</v>
+        <v>637646</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8331969785804583</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7998577322672614</v>
+        <v>0.8030095601189939</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8581036733508716</v>
+        <v>0.8600549861262021</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>654</v>
@@ -2284,19 +2284,19 @@
         <v>690983</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>672031</v>
+        <v>671158</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>708791</v>
+        <v>705425</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8832038933140138</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8589794262403575</v>
+        <v>0.8578629952008652</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9059650253859938</v>
+        <v>0.9016630623883269</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1262</v>
@@ -2305,19 +2305,19 @@
         <v>1308716</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1278668</v>
+        <v>1280149</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1335223</v>
+        <v>1333327</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8588725421752209</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8391526729477472</v>
+        <v>0.8401244657767074</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8762680938219471</v>
+        <v>0.8750240341090871</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>123668</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>105202</v>
+        <v>103755</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>148386</v>
+        <v>146049</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1668030214195418</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1418963266491285</v>
+        <v>0.1399450138737979</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2001422677327387</v>
+        <v>0.196990439881006</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>90</v>
@@ -2355,19 +2355,19 @@
         <v>91377</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73569</v>
+        <v>76935</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>110329</v>
+        <v>111202</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1167961066859862</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09403497461400678</v>
+        <v>0.09833693761167313</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1410205737596427</v>
+        <v>0.1421370047991348</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>216</v>
@@ -2376,19 +2376,19 @@
         <v>215045</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>188538</v>
+        <v>190434</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>245093</v>
+        <v>243612</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1411274578247791</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1237319061780528</v>
+        <v>0.124975965890913</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1608473270522528</v>
+        <v>0.1598755342232926</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>2303361</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2251253</v>
+        <v>2251537</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2354612</v>
+        <v>2356589</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7042892946068394</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6883563924830234</v>
+        <v>0.688443060098694</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7199601744754434</v>
+        <v>0.720564399926435</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2363</v>
@@ -2501,19 +2501,19 @@
         <v>2440666</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2388600</v>
+        <v>2391285</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2495223</v>
+        <v>2489051</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7229309436597393</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7075089307105324</v>
+        <v>0.7083042491732718</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.739090811669768</v>
+        <v>0.7372627195006702</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4629</v>
@@ -2522,19 +2522,19 @@
         <v>4744028</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4663278</v>
+        <v>4666749</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4818640</v>
+        <v>4821884</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7137582014626049</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.701609028763891</v>
+        <v>0.7021312293361965</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7249838697388113</v>
+        <v>0.7254719673238966</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>967115</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>915864</v>
+        <v>913887</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1019223</v>
+        <v>1018939</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2957107053931606</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2800398255245568</v>
+        <v>0.279435600073565</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3116436075169767</v>
+        <v>0.311556939901306</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>931</v>
@@ -2572,19 +2572,19 @@
         <v>935405</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>880848</v>
+        <v>887020</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>987471</v>
+        <v>984786</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2770690563402606</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2609091883302322</v>
+        <v>0.26273728049933</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2924910692894676</v>
+        <v>0.2916957508267282</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1874</v>
@@ -2593,19 +2593,19 @@
         <v>1902520</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1827908</v>
+        <v>1824664</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1983270</v>
+        <v>1979799</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.286241798537395</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2750161302611886</v>
+        <v>0.2745280326761033</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.298390971236109</v>
+        <v>0.2978687706638035</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>224440</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>209774</v>
+        <v>208127</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>238306</v>
+        <v>237638</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7940440278410923</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7421570085386308</v>
+        <v>0.7363324683460082</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.843099848546627</v>
+        <v>0.8407394543790444</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>212</v>
@@ -2962,19 +2962,19 @@
         <v>238617</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>226395</v>
+        <v>224692</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>250545</v>
+        <v>249205</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8603056229367745</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8162407651375839</v>
+        <v>0.8100997391047857</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.903309454501082</v>
+        <v>0.8984791466681533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>430</v>
@@ -2983,19 +2983,19 @@
         <v>463057</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>442382</v>
+        <v>444275</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>479853</v>
+        <v>480248</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8268617744624914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.789943978585385</v>
+        <v>0.7933245365407267</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8568548675693316</v>
+        <v>0.8575591659855344</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>58214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44348</v>
+        <v>45016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72880</v>
+        <v>74527</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2059559721589077</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.156900151453373</v>
+        <v>0.1592605456209556</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2578429914613692</v>
+        <v>0.2636675316539912</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -3033,19 +3033,19 @@
         <v>38746</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26818</v>
+        <v>28158</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50968</v>
+        <v>52671</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1396943770632256</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09669054549891737</v>
+        <v>0.1015208533318466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1837592348624158</v>
+        <v>0.1899002608952142</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -3054,19 +3054,19 @@
         <v>96960</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80164</v>
+        <v>79769</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>117635</v>
+        <v>115742</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1731382255375085</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1431451324306684</v>
+        <v>0.1424408340144658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2100560214146151</v>
+        <v>0.2066754634592734</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>283858</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>262281</v>
+        <v>261396</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>304383</v>
+        <v>306839</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5648321640146994</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5218969695625837</v>
+        <v>0.5201356322886136</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6056732451748934</v>
+        <v>0.6105599179450725</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>281</v>
@@ -3179,19 +3179,19 @@
         <v>305803</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>282686</v>
+        <v>283380</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>331246</v>
+        <v>331458</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5851909999224597</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5409543115798007</v>
+        <v>0.5422807770263882</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6338786775101614</v>
+        <v>0.6342846748765275</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>543</v>
@@ -3200,19 +3200,19 @@
         <v>589661</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>552868</v>
+        <v>553834</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>622649</v>
+        <v>622607</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.575210342944152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.539319044935236</v>
+        <v>0.5402613994921341</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6073895651230453</v>
+        <v>0.6073482236589877</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>218695</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>198170</v>
+        <v>195714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>240272</v>
+        <v>241157</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4351678359853007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3943267548251066</v>
+        <v>0.3894400820549276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4781030304374161</v>
+        <v>0.4798643677113866</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>198</v>
@@ -3250,19 +3250,19 @@
         <v>216767</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>191324</v>
+        <v>191112</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>239884</v>
+        <v>239190</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4148090000775403</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3661213224898391</v>
+        <v>0.3657153251234724</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4590456884201996</v>
+        <v>0.4577192229736118</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>405</v>
@@ -3271,19 +3271,19 @@
         <v>435462</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>402474</v>
+        <v>402516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>472255</v>
+        <v>471289</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4247896570558481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3926104348769547</v>
+        <v>0.3926517763410124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4606809550647641</v>
+        <v>0.4597386005078659</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>214624</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198400</v>
+        <v>194503</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>231920</v>
+        <v>232192</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6644326478423691</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6142058136225231</v>
+        <v>0.6021415608852708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7179759065308648</v>
+        <v>0.7188181427196931</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>238</v>
@@ -3396,19 +3396,19 @@
         <v>258187</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>240888</v>
+        <v>240556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>272347</v>
+        <v>273343</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7641940905308481</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7129925187133165</v>
+        <v>0.7120097454779841</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8061056665448418</v>
+        <v>0.809053399045935</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>449</v>
@@ -3417,19 +3417,19 @@
         <v>472811</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>447612</v>
+        <v>450979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>494049</v>
+        <v>496708</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.715433136203645</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6773033837599094</v>
+        <v>0.68239721290787</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7475692381409693</v>
+        <v>0.7515929794364539</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>108395</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91099</v>
+        <v>90827</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124619</v>
+        <v>128516</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3355673521576309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2820240934691351</v>
+        <v>0.2811818572803068</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3857941863774769</v>
+        <v>0.3978584391147292</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>76</v>
@@ -3467,19 +3467,19 @@
         <v>79668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>65508</v>
+        <v>64512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>96967</v>
+        <v>97299</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2358059094691519</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1938943334551582</v>
+        <v>0.1909466009540651</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2870074812866835</v>
+        <v>0.2879902545220159</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>183</v>
@@ -3488,19 +3488,19 @@
         <v>188063</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>166825</v>
+        <v>164166</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>213262</v>
+        <v>209895</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.284566863796355</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2524307618590307</v>
+        <v>0.2484070205635462</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3226966162400906</v>
+        <v>0.31760278709213</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>200220</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>181375</v>
+        <v>179306</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219385</v>
+        <v>221695</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5401087147793714</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4892705877200019</v>
+        <v>0.4836900476042911</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5918073718602894</v>
+        <v>0.5980373685629192</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>234</v>
@@ -3613,19 +3613,19 @@
         <v>245421</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>225382</v>
+        <v>224184</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>262551</v>
+        <v>263177</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6342147363567154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5824283940356536</v>
+        <v>0.579331963729054</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6784807765586318</v>
+        <v>0.6800972363796531</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>418</v>
@@ -3634,19 +3634,19 @@
         <v>445642</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>415834</v>
+        <v>416099</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>472790</v>
+        <v>474215</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.588171845838958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5488300117593757</v>
+        <v>0.54918007741089</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6240024623898668</v>
+        <v>0.6258831718629565</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>170484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151319</v>
+        <v>149009</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189329</v>
+        <v>191398</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4598912852206286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4081926281397106</v>
+        <v>0.4019626314370809</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.510729412279998</v>
+        <v>0.5163099523957089</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>135</v>
@@ -3684,19 +3684,19 @@
         <v>141548</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>124418</v>
+        <v>123792</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161587</v>
+        <v>162785</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3657852636432845</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3215192234413683</v>
+        <v>0.3199027636203469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4175716059643465</v>
+        <v>0.4206680362709463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>292</v>
@@ -3705,19 +3705,19 @@
         <v>312031</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>284883</v>
+        <v>283458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>341839</v>
+        <v>341574</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4118281541610421</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3759975376101332</v>
+        <v>0.3741168281370435</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4511699882406241</v>
+        <v>0.4508199225891099</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>122452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>106486</v>
+        <v>107934</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>137226</v>
+        <v>136696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5786850964171306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5032357022275187</v>
+        <v>0.5100776498442745</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.648507731695895</v>
+        <v>0.6460020175117706</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>155</v>
@@ -3830,19 +3830,19 @@
         <v>162425</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>148918</v>
+        <v>148988</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>174338</v>
+        <v>175045</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7426892917061184</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6809280433466671</v>
+        <v>0.6812499940059045</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7971653919506896</v>
+        <v>0.80039562898593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>268</v>
@@ -3851,19 +3851,19 @@
         <v>284877</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>263986</v>
+        <v>266634</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>304102</v>
+        <v>305398</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6620392839194734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6134908642265108</v>
+        <v>0.6196434720106634</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7067165673073638</v>
+        <v>0.7097290839032083</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>89151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>74377</v>
+        <v>74907</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105117</v>
+        <v>103669</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4213149035828693</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3514922683041051</v>
+        <v>0.3539979824882294</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4967642977724813</v>
+        <v>0.4899223501557255</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -3901,19 +3901,19 @@
         <v>56273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44360</v>
+        <v>43653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69780</v>
+        <v>69710</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2573107082938815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2028346080493111</v>
+        <v>0.1996043710140701</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3190719566533328</v>
+        <v>0.3187500059940956</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>138</v>
@@ -3922,19 +3922,19 @@
         <v>145425</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>126200</v>
+        <v>124904</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>166316</v>
+        <v>163668</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3379607160805266</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2932834326926358</v>
+        <v>0.2902709160967915</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3865091357734891</v>
+        <v>0.3803565279893364</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>175398</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>159999</v>
+        <v>159626</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>190948</v>
+        <v>190917</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6525624161784792</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5952713043456422</v>
+        <v>0.5938857078266445</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7104181767480727</v>
+        <v>0.7103015792734493</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>208</v>
@@ -4047,19 +4047,19 @@
         <v>216306</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>201804</v>
+        <v>202069</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>230155</v>
+        <v>229670</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7811635474433705</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7287911019510347</v>
+        <v>0.7297499997009371</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8311802838020745</v>
+        <v>0.8294259831028489</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>374</v>
@@ -4068,19 +4068,19 @@
         <v>391703</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>369681</v>
+        <v>370925</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>412763</v>
+        <v>412671</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7178196218251778</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6774621308098375</v>
+        <v>0.6797413522828558</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7564123903156833</v>
+        <v>0.7562432818689269</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>93385</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>77835</v>
+        <v>77866</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108784</v>
+        <v>109157</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3474375838215208</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2895818232519273</v>
+        <v>0.2896984207265506</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4047286956543578</v>
+        <v>0.4061142921733552</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -4118,19 +4118,19 @@
         <v>60596</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46747</v>
+        <v>47232</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>75098</v>
+        <v>74833</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2188364525566295</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1688197161979253</v>
+        <v>0.1705740168971511</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.271208898048965</v>
+        <v>0.2702500002990629</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>148</v>
@@ -4139,19 +4139,19 @@
         <v>153982</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132922</v>
+        <v>133014</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>176004</v>
+        <v>174760</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2821803781748222</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2435876096843165</v>
+        <v>0.2437567181310731</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3225378691901621</v>
+        <v>0.3202586477171441</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>404679</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>380243</v>
+        <v>375498</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>430775</v>
+        <v>428672</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.61884515436555</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5814774648559797</v>
+        <v>0.574221137708758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6587516704679954</v>
+        <v>0.6555352409688326</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>445</v>
@@ -4264,19 +4264,19 @@
         <v>487816</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>463443</v>
+        <v>461056</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>511216</v>
+        <v>509226</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7153386928169916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6795981735631025</v>
+        <v>0.6760970203665558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7496533575044171</v>
+        <v>0.7467345486479432</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>817</v>
@@ -4285,19 +4285,19 @@
         <v>892495</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>858763</v>
+        <v>854825</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>929963</v>
+        <v>925831</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6681035514553765</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6428522452693478</v>
+        <v>0.6399049037009191</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6961515270660987</v>
+        <v>0.6930584058716321</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>249247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>223151</v>
+        <v>225254</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>273683</v>
+        <v>278428</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.38115484563445</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3412483295320045</v>
+        <v>0.3444647590311674</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4185225351440203</v>
+        <v>0.425778862291242</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>181</v>
@@ -4335,19 +4335,19 @@
         <v>194121</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>170721</v>
+        <v>172711</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>218494</v>
+        <v>220881</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2846613071830084</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.250346642495582</v>
+        <v>0.2532654513520566</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3204018264368974</v>
+        <v>0.3239029796334441</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>418</v>
@@ -4356,19 +4356,19 @@
         <v>443368</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>405900</v>
+        <v>410032</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>477100</v>
+        <v>481038</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3318964485446236</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3038484729339013</v>
+        <v>0.3069415941283679</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3571477547306522</v>
+        <v>0.3600950962990809</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>706458</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>689545</v>
+        <v>689216</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>719536</v>
+        <v>720701</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9137894938646842</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8919131519568284</v>
+        <v>0.8914870185011563</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9307060962980663</v>
+        <v>0.9322128316454938</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>680</v>
@@ -4481,19 +4481,19 @@
         <v>737813</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>716521</v>
+        <v>719736</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>754925</v>
+        <v>755045</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8991036290488222</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8731567629497031</v>
+        <v>0.8770747145082184</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9199554642383724</v>
+        <v>0.920101856913295</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1326</v>
@@ -4502,19 +4502,19 @@
         <v>1444272</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1418024</v>
+        <v>1418601</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1464455</v>
+        <v>1465242</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9062276995496734</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.88975814196545</v>
+        <v>0.8901197931435915</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9188918338630241</v>
+        <v>0.9193851172820598</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>66650</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53572</v>
+        <v>52407</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>83563</v>
+        <v>83892</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08621050613531575</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0692939037019336</v>
+        <v>0.06778716835450591</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1080868480431717</v>
+        <v>0.1085129814988429</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>74</v>
@@ -4552,19 +4552,19 @@
         <v>82797</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65685</v>
+        <v>65565</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>104089</v>
+        <v>100874</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1008963709511778</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08004453576162737</v>
+        <v>0.07989814308670486</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1268432370502965</v>
+        <v>0.1229252854917815</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>139</v>
@@ -4573,19 +4573,19 @@
         <v>149447</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>129264</v>
+        <v>128477</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>175695</v>
+        <v>175118</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09377230045032664</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08110816613697588</v>
+        <v>0.08061488271794019</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1102418580345496</v>
+        <v>0.1098802068564086</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>2332130</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2276677</v>
+        <v>2279432</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2384210</v>
+        <v>2388084</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6886850885341197</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.672309632892565</v>
+        <v>0.6731231967056954</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.704064408406783</v>
+        <v>0.7052084031844551</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2453</v>
@@ -4698,19 +4698,19 @@
         <v>2652387</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2597305</v>
+        <v>2596012</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2700875</v>
+        <v>2701601</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7528982484390894</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7372628323337158</v>
+        <v>0.7368957849215302</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7666616446995475</v>
+        <v>0.7668678618433383</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4625</v>
@@ -4719,19 +4719,19 @@
         <v>4984518</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4904648</v>
+        <v>4910244</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5067765</v>
+        <v>5053039</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7214262102111954</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7098663499642206</v>
+        <v>0.7106763472629843</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7334748714646159</v>
+        <v>0.7313434982175663</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1054222</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1002142</v>
+        <v>998268</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1109675</v>
+        <v>1106920</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3113149114658803</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.295935591593217</v>
+        <v>0.2947915968155448</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.327690367107435</v>
+        <v>0.3268768032943042</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>814</v>
@@ -4769,19 +4769,19 @@
         <v>870516</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>822028</v>
+        <v>821302</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>925598</v>
+        <v>926891</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2471017515609106</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2333383553004525</v>
+        <v>0.2331321381566617</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.262737167666284</v>
+        <v>0.2631042150784696</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1811</v>
@@ -4790,19 +4790,19 @@
         <v>1924737</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1841490</v>
+        <v>1856216</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2004607</v>
+        <v>1999011</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2785737897888047</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2665251285353843</v>
+        <v>0.2686565017824337</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2901336500357795</v>
+        <v>0.2893236527370151</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>242185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>227691</v>
+        <v>229175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>254163</v>
+        <v>254342</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8471672133585173</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7964686698512491</v>
+        <v>0.8016584661439243</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8890657265108475</v>
+        <v>0.8896931993329924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>233</v>
@@ -5159,19 +5159,19 @@
         <v>241503</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>228346</v>
+        <v>228374</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>253315</v>
+        <v>252749</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8582828770267331</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.811525322286631</v>
+        <v>0.8116242294590371</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9002621088963472</v>
+        <v>0.8982498997585653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>453</v>
@@ -5180,19 +5180,19 @@
         <v>483688</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>466174</v>
+        <v>464193</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>499959</v>
+        <v>500828</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8526809815139141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8218064833180531</v>
+        <v>0.8183141580898921</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8813650653035953</v>
+        <v>0.8828967902719237</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>43691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31713</v>
+        <v>31534</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58185</v>
+        <v>56701</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1528327866414827</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1109342734891527</v>
+        <v>0.1103068006670076</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2035313301487509</v>
+        <v>0.1983415338560756</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -5230,19 +5230,19 @@
         <v>39876</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28064</v>
+        <v>28630</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53033</v>
+        <v>53005</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1417171229732669</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09973789110365297</v>
+        <v>0.1017501002414347</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1884746777133691</v>
+        <v>0.1883757705409629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -5251,19 +5251,19 @@
         <v>83567</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67296</v>
+        <v>66427</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>101081</v>
+        <v>103062</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1473190184860859</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1186349346964046</v>
+        <v>0.1171032097280764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1781935166819468</v>
+        <v>0.1816858419101079</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>414732</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>396344</v>
+        <v>396877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>430192</v>
+        <v>430827</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8338455776073666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7968742172255552</v>
+        <v>0.7979468853382014</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8649288730898216</v>
+        <v>0.8662047196887697</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>392</v>
@@ -5376,19 +5376,19 @@
         <v>428617</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>410677</v>
+        <v>409641</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>444353</v>
+        <v>444029</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.827991387809102</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7933343621676365</v>
+        <v>0.7913345302169591</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8583902341355364</v>
+        <v>0.8577635041359926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>784</v>
@@ -5397,19 +5397,19 @@
         <v>843349</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>819843</v>
+        <v>820316</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>867827</v>
+        <v>867028</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8308599830447271</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8077026650647233</v>
+        <v>0.8081682631190764</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8549759200787076</v>
+        <v>0.8541885986101743</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>82641</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>67181</v>
+        <v>66546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101029</v>
+        <v>100496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1661544223926334</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.135071126910178</v>
+        <v>0.1337952803112303</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2031257827744448</v>
+        <v>0.2020531146617979</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>87</v>
@@ -5447,19 +5447,19 @@
         <v>89042</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73306</v>
+        <v>73630</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>106982</v>
+        <v>108018</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1720086121908981</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1416097658644634</v>
+        <v>0.1422364958640075</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2066656378323633</v>
+        <v>0.2086654697830409</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>165</v>
@@ -5468,19 +5468,19 @@
         <v>171682</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>147204</v>
+        <v>148003</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>195188</v>
+        <v>194715</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1691400169552729</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1450240799212925</v>
+        <v>0.1458114013898258</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1922973349352766</v>
+        <v>0.1918317368809236</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>248849</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>233425</v>
+        <v>233322</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>263913</v>
+        <v>261332</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.785857728854145</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7371493733577608</v>
+        <v>0.7368256480010212</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.833429420109747</v>
+        <v>0.8252780402706837</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>272</v>
@@ -5593,19 +5593,19 @@
         <v>276002</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>262826</v>
+        <v>260957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>288685</v>
+        <v>289027</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8291675177115948</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7895859402391366</v>
+        <v>0.7839700949950552</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8672723154734608</v>
+        <v>0.8682971729419099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>535</v>
@@ -5614,19 +5614,19 @@
         <v>524851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>503002</v>
+        <v>504395</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>543352</v>
+        <v>543270</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8080529591757798</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7744153809744165</v>
+        <v>0.7765605394289239</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8365374222033749</v>
+        <v>0.8364114258715692</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>67810</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52746</v>
+        <v>55327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>83234</v>
+        <v>83337</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.214142271145855</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.166570579890253</v>
+        <v>0.1747219597293161</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2628506266422392</v>
+        <v>0.2631743519989785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -5664,19 +5664,19 @@
         <v>56864</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44181</v>
+        <v>43839</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>70040</v>
+        <v>71909</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1708324822884052</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1327276845265391</v>
+        <v>0.1317028270580901</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2104140597608633</v>
+        <v>0.2160299050049447</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>127</v>
@@ -5685,19 +5685,19 @@
         <v>124674</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>106173</v>
+        <v>106255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>146523</v>
+        <v>145130</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1919470408242202</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1634625777966251</v>
+        <v>0.1635885741284305</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2255846190255835</v>
+        <v>0.2234394605710759</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>175142</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155876</v>
+        <v>154193</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>196181</v>
+        <v>195670</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4760089067941647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4236461687828262</v>
+        <v>0.4190726688484866</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5331901066165539</v>
+        <v>0.5317989136955498</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>202</v>
@@ -5810,19 +5810,19 @@
         <v>224118</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205146</v>
+        <v>205080</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>244227</v>
+        <v>244646</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5831882665463277</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5338200890209831</v>
+        <v>0.5336482302183945</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6355143666842349</v>
+        <v>0.6366058951410948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>367</v>
@@ -5831,19 +5831,19 @@
         <v>399260</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>371592</v>
+        <v>371924</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>426572</v>
+        <v>428339</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.530763952345924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4939832192652562</v>
+        <v>0.4944234193565437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5670718991693732</v>
+        <v>0.5694198907975055</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>192797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>171758</v>
+        <v>172269</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212063</v>
+        <v>213746</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5239910932058353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4668098933834463</v>
+        <v>0.4682010863044502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5763538312171739</v>
+        <v>0.5809273311515134</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -5881,19 +5881,19 @@
         <v>160180</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>140071</v>
+        <v>139652</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>179152</v>
+        <v>179218</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4168117334536722</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3644856333157649</v>
+        <v>0.3633941048589052</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.466179910979017</v>
+        <v>0.4663517697816056</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>340</v>
@@ -5902,19 +5902,19 @@
         <v>352977</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>325665</v>
+        <v>323898</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>380645</v>
+        <v>380313</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.469236047654076</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4329281008306268</v>
+        <v>0.4305801092024945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5060167807347438</v>
+        <v>0.5055765806434562</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>191605</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181952</v>
+        <v>181949</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>199475</v>
+        <v>198916</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.911731117988513</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8658005880879902</v>
+        <v>0.8657855235767746</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9491787877900039</v>
+        <v>0.9465188393161118</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>204</v>
@@ -6027,19 +6027,19 @@
         <v>200368</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>190556</v>
+        <v>191292</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>207547</v>
+        <v>207147</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9166530821860821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8717638947328746</v>
+        <v>0.8751314915444285</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9494915971908529</v>
+        <v>0.9476643270351015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>397</v>
@@ -6048,19 +6048,19 @@
         <v>391973</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>377348</v>
+        <v>378860</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>402626</v>
+        <v>402404</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9142404985922374</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8801295374554353</v>
+        <v>0.8836548838658552</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9390869102254337</v>
+        <v>0.9385682693285754</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>18550</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10680</v>
+        <v>11239</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28203</v>
+        <v>28206</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08826888201148696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05082121220999607</v>
+        <v>0.05348116068388816</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1341994119120098</v>
+        <v>0.1342144764232254</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -6098,19 +6098,19 @@
         <v>18219</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11040</v>
+        <v>11440</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28031</v>
+        <v>27295</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08334691781391787</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05050840280914722</v>
+        <v>0.05233567296489849</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1282361052671256</v>
+        <v>0.1248685084555709</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -6119,19 +6119,19 @@
         <v>36769</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26116</v>
+        <v>26338</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51394</v>
+        <v>49882</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08575950140776255</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06091308977456646</v>
+        <v>0.06143173067142461</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.119870462544565</v>
+        <v>0.1163451161341447</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>209441</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>195744</v>
+        <v>195711</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>222628</v>
+        <v>223253</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7959819403261661</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7439274290882868</v>
+        <v>0.7437991394527381</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8460970395363098</v>
+        <v>0.8484740284818668</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>211</v>
@@ -6244,19 +6244,19 @@
         <v>221120</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>208694</v>
+        <v>208153</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>233996</v>
+        <v>232731</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8154114232672409</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7695893307811158</v>
+        <v>0.7675934132642488</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8628932247625745</v>
+        <v>0.8582269755403817</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>417</v>
@@ -6265,19 +6265,19 @@
         <v>430561</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>412882</v>
+        <v>412475</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>449545</v>
+        <v>448912</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.80584310817677</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7727550321562227</v>
+        <v>0.7719928962042627</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.841373214579472</v>
+        <v>0.8401883754765889</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>53682</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40495</v>
+        <v>39870</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>67379</v>
+        <v>67412</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2040180596738339</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1539029604636901</v>
+        <v>0.1515259715181329</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2560725709117131</v>
+        <v>0.2562008605472617</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -6315,19 +6315,19 @@
         <v>50056</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37180</v>
+        <v>38445</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62482</v>
+        <v>63023</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.184588576732759</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1371067752374255</v>
+        <v>0.1417730244596181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2304106692188842</v>
+        <v>0.2324065867357511</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>103</v>
@@ -6336,19 +6336,19 @@
         <v>103738</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84754</v>
+        <v>85387</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>121417</v>
+        <v>121824</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.19415689182323</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1586267854205284</v>
+        <v>0.1598116245234111</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2272449678437778</v>
+        <v>0.2280071037957371</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>554947</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>532833</v>
+        <v>535448</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>573489</v>
+        <v>573722</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8512365616563907</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.817316470113932</v>
+        <v>0.8213278771587392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8796791568872903</v>
+        <v>0.8800366903992297</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>561</v>
@@ -6461,19 +6461,19 @@
         <v>602152</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>584741</v>
+        <v>583324</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>616983</v>
+        <v>617943</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8855229484874871</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8599178030544496</v>
+        <v>0.857834694742702</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9073340010128262</v>
+        <v>0.9087457793143752</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1052</v>
@@ -6482,19 +6482,19 @@
         <v>1157099</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1132380</v>
+        <v>1129028</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1182280</v>
+        <v>1178778</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8687409880710544</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8501824825032914</v>
+        <v>0.8476657557071643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8876471896333223</v>
+        <v>0.8850177033284183</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>96983</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>78441</v>
+        <v>78208</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>119097</v>
+        <v>116482</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1487634383436093</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1203208431127098</v>
+        <v>0.1199633096007704</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.182683529886068</v>
+        <v>0.1786721228412608</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>75</v>
@@ -6532,19 +6532,19 @@
         <v>77844</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>63013</v>
+        <v>62053</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>95255</v>
+        <v>96672</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1144770515125128</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0926659989871738</v>
+        <v>0.09125422068562478</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1400821969455504</v>
+        <v>0.142165305257298</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>160</v>
@@ -6553,19 +6553,19 @@
         <v>174827</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>149646</v>
+        <v>153148</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>199546</v>
+        <v>202898</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1312590119289456</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1123528103666776</v>
+        <v>0.1149822966715812</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1498175174967082</v>
+        <v>0.1523342442928355</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>721697</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>705956</v>
+        <v>705424</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>734709</v>
+        <v>734038</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9312993530279606</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9109868404146853</v>
+        <v>0.9103002838997907</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9480903349430323</v>
+        <v>0.9472239781122025</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>713</v>
@@ -6678,19 +6678,19 @@
         <v>781120</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>767627</v>
+        <v>767357</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>793313</v>
+        <v>792184</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9493395933861762</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9329402651543571</v>
+        <v>0.932612330271524</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9641582890705619</v>
+        <v>0.9627854910643096</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1409</v>
@@ -6699,19 +6699,19 @@
         <v>1502818</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1482740</v>
+        <v>1484009</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1520501</v>
+        <v>1520960</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9405897115707715</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9280231295615597</v>
+        <v>0.9288177768310537</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9516571542722683</v>
+        <v>0.9519449161832692</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>53239</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40227</v>
+        <v>40898</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>68980</v>
+        <v>69512</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06870064697203933</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05190966505696774</v>
+        <v>0.05277602188779741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08901315958531471</v>
+        <v>0.08969971610020924</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>39</v>
@@ -6749,19 +6749,19 @@
         <v>41684</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29491</v>
+        <v>30620</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55177</v>
+        <v>55447</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05066040661382373</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03584171092943791</v>
+        <v>0.03721450893569044</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0670597348456428</v>
+        <v>0.06738766972847593</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>90</v>
@@ -6770,19 +6770,19 @@
         <v>94922</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>77239</v>
+        <v>76780</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>115000</v>
+        <v>113731</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05941028842922847</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04834284572773167</v>
+        <v>0.04805508381673076</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0719768704384402</v>
+        <v>0.07118222316894612</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>2758599</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2714850</v>
+        <v>2711521</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2807211</v>
+        <v>2801138</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8190633996339007</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8060737342628306</v>
+        <v>0.8050853468678122</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.833496925025938</v>
+        <v>0.831693634732894</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2788</v>
@@ -6895,19 +6895,19 @@
         <v>2975000</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2934203</v>
+        <v>2929293</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3019692</v>
+        <v>3017180</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8478768768914284</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8362497679261964</v>
+        <v>0.8348504443008191</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8606141705675163</v>
+        <v>0.8598981195037871</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5414</v>
@@ -6916,19 +6916,19 @@
         <v>5733599</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5670744</v>
+        <v>5667161</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5792415</v>
+        <v>5793186</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8337650546168544</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8246248718989744</v>
+        <v>0.8241038085445173</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8423180109910781</v>
+        <v>0.842430110436286</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>609393</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>560781</v>
+        <v>566854</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>653142</v>
+        <v>656471</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1809366003660992</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1665030749740618</v>
+        <v>0.1683063652671061</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1939262657371694</v>
+        <v>0.1949146531321881</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>517</v>
@@ -6966,19 +6966,19 @@
         <v>533764</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>489072</v>
+        <v>491584</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>574561</v>
+        <v>579471</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1521231231085716</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1393858294324834</v>
+        <v>0.1401018804962129</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1637502320738036</v>
+        <v>0.1651495556991809</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1099</v>
@@ -6987,19 +6987,19 @@
         <v>1143157</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1084341</v>
+        <v>1083570</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1206012</v>
+        <v>1209595</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1662349453831456</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.157681989008922</v>
+        <v>0.1575698895637139</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1753751281010257</v>
+        <v>0.1758961914554828</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>176498</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>157451</v>
+        <v>157307</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>193847</v>
+        <v>196035</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5609846369995437</v>
+        <v>0.5609846369995439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.500444053711123</v>
+        <v>0.4999863907509625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6161262218220405</v>
+        <v>0.6230808494019852</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>328</v>
@@ -7356,19 +7356,19 @@
         <v>189723</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>173925</v>
+        <v>174999</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>203580</v>
+        <v>204192</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.609660030263927</v>
+        <v>0.6096600302639271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5588954619497513</v>
+        <v>0.5623447620598148</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6541885868436019</v>
+        <v>0.6561538404600306</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>514</v>
@@ -7377,19 +7377,19 @@
         <v>366221</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>343097</v>
+        <v>344352</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>388466</v>
+        <v>389356</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5851890453621883</v>
+        <v>0.5851890453621884</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5482381221126527</v>
+        <v>0.5502443312474152</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6207337686217699</v>
+        <v>0.6221570197225151</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>138124</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120775</v>
+        <v>118587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>157171</v>
+        <v>157315</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.439015363000456</v>
+        <v>0.4390153630004561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3838737781779596</v>
+        <v>0.3769191505980148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.499555946288877</v>
+        <v>0.5000136092490376</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>202</v>
@@ -7427,19 +7427,19 @@
         <v>121472</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>107615</v>
+        <v>107003</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>137270</v>
+        <v>136196</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3903399697360729</v>
+        <v>0.390339969736073</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3458114131563984</v>
+        <v>0.3438461595399693</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4411045380502487</v>
+        <v>0.4376552379401849</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>342</v>
@@ -7448,19 +7448,19 @@
         <v>259596</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>237351</v>
+        <v>236461</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>282720</v>
+        <v>281465</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4148109546378117</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.37926623137823</v>
+        <v>0.3778429802774849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4517618778873473</v>
+        <v>0.4497556687525848</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>334220</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>306492</v>
+        <v>303583</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>360318</v>
+        <v>359083</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6366683685744947</v>
+        <v>0.6366683685744945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5838478973882257</v>
+        <v>0.5783067876348604</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6863833242952384</v>
+        <v>0.684031980889527</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>424</v>
@@ -7573,19 +7573,19 @@
         <v>315202</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>294789</v>
+        <v>291654</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>336301</v>
+        <v>336235</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5800750876697089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5425086924253624</v>
+        <v>0.5367393878407757</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6189043598745058</v>
+        <v>0.6187834682897742</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>665</v>
@@ -7594,19 +7594,19 @@
         <v>649421</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>610575</v>
+        <v>614107</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>684361</v>
+        <v>680936</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6078835773101968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5715222140259731</v>
+        <v>0.5748283207428174</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6405887754689475</v>
+        <v>0.6373825713982946</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>190731</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>164633</v>
+        <v>165868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>218459</v>
+        <v>221368</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3633316314255055</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3136166757047616</v>
+        <v>0.315968019110473</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4161521026117743</v>
+        <v>0.4216932123651396</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>288</v>
@@ -7644,19 +7644,19 @@
         <v>228179</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>207080</v>
+        <v>207146</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>248592</v>
+        <v>251727</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4199249123302911</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3810956401254942</v>
+        <v>0.3812165317102259</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4574913075746375</v>
+        <v>0.4632606121592242</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>424</v>
@@ -7665,19 +7665,19 @@
         <v>418911</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>383971</v>
+        <v>387396</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>457757</v>
+        <v>454225</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3921164226898032</v>
+        <v>0.3921164226898031</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3594112245310524</v>
+        <v>0.3626174286017053</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4284777859740269</v>
+        <v>0.4251716792571824</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>146044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129843</v>
+        <v>128852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162718</v>
+        <v>163981</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4912098668389401</v>
+        <v>0.49120986683894</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4367188527628763</v>
+        <v>0.4333884752790079</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5472933869103389</v>
+        <v>0.5515417298358153</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>283</v>
@@ -7790,19 +7790,19 @@
         <v>181879</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>165477</v>
+        <v>165852</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196645</v>
+        <v>197462</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5599631109134917</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5094627672837242</v>
+        <v>0.5106184698887127</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6054243303046586</v>
+        <v>0.6079397825097581</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>460</v>
@@ -7811,19 +7811,19 @@
         <v>327923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>305313</v>
+        <v>304614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>349695</v>
+        <v>349811</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5271056143904759</v>
+        <v>0.527105614390476</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4907623033544193</v>
+        <v>0.4896392934079218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5621023183411945</v>
+        <v>0.5622889994417202</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>151270</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>134596</v>
+        <v>133333</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>167471</v>
+        <v>168462</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5087901331610601</v>
+        <v>0.5087901331610599</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4527066130896619</v>
+        <v>0.4484582701641847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5632811472371237</v>
+        <v>0.566611524720992</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>201</v>
@@ -7861,19 +7861,19 @@
         <v>142927</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>128161</v>
+        <v>127344</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159329</v>
+        <v>158954</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4400368890865082</v>
+        <v>0.4400368890865081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3945756696953415</v>
+        <v>0.3920602174902419</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4905372327162755</v>
+        <v>0.4893815301112873</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>359</v>
@@ -7882,19 +7882,19 @@
         <v>294197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>272425</v>
+        <v>272309</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>316807</v>
+        <v>317506</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4728943856095241</v>
+        <v>0.4728943856095242</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4378976816588055</v>
+        <v>0.4377110005582797</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5092376966455807</v>
+        <v>0.5103607065920779</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>126814</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104580</v>
+        <v>103176</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>149933</v>
+        <v>153399</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3456187107995076</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2850228782604311</v>
+        <v>0.2811949631535356</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4086271583584867</v>
+        <v>0.4180740279314379</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>233</v>
@@ -8007,19 +8007,19 @@
         <v>153731</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135447</v>
+        <v>136122</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>173716</v>
+        <v>173331</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3752859427713738</v>
+        <v>0.3752859427713737</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3306528691283249</v>
+        <v>0.3322989445627736</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4240747162708063</v>
+        <v>0.4231348265346453</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>337</v>
@@ -8028,19 +8028,19 @@
         <v>280544</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>248906</v>
+        <v>253048</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>309591</v>
+        <v>312646</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3612682991417019</v>
+        <v>0.3612682991417018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3205258327342867</v>
+        <v>0.3258606146457704</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3986722235492516</v>
+        <v>0.4026067193936932</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>240105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>216986</v>
+        <v>213520</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>262339</v>
+        <v>263743</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6543812892004924</v>
+        <v>0.6543812892004923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5913728416415134</v>
+        <v>0.581925972068562</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.714977121739569</v>
+        <v>0.7188050368464647</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>345</v>
@@ -8078,19 +8078,19 @@
         <v>255905</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>235920</v>
+        <v>236305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>274189</v>
+        <v>273514</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6247140572286264</v>
+        <v>0.6247140572286262</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5759252837291937</v>
+        <v>0.5768651734653547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6693471308716751</v>
+        <v>0.6677010554372264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>528</v>
@@ -8099,19 +8099,19 @@
         <v>496010</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>466963</v>
+        <v>463908</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>527648</v>
+        <v>523506</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6387317008582981</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6013277764507489</v>
+        <v>0.5973932806063071</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6794741672657132</v>
+        <v>0.6741393853542297</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>188955</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>179654</v>
+        <v>178350</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195666</v>
+        <v>195581</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9220479288956336</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8766588760221085</v>
+        <v>0.8702977377820317</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9547924742284781</v>
+        <v>0.9543811598231708</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>459</v>
@@ -8224,19 +8224,19 @@
         <v>210496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>201877</v>
+        <v>202744</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>215604</v>
+        <v>215618</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9280191283072242</v>
+        <v>0.9280191283072241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8900193009680436</v>
+        <v>0.8938440720357009</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9505375865450864</v>
+        <v>0.9506006033747767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>720</v>
@@ -8245,19 +8245,19 @@
         <v>399451</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>387004</v>
+        <v>386354</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>407977</v>
+        <v>408615</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9251849223049599</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8963547772018208</v>
+        <v>0.8948501678440487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.944930577350703</v>
+        <v>0.9464103167362077</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>15975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9264</v>
+        <v>9349</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25276</v>
+        <v>26580</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07795207110436633</v>
+        <v>0.07795207110436632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04520752577152188</v>
+        <v>0.04561884017682918</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1233411239778923</v>
+        <v>0.1297022622179686</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -8295,19 +8295,19 @@
         <v>16327</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11219</v>
+        <v>11205</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24946</v>
+        <v>24079</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07198087169277591</v>
+        <v>0.07198087169277589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04946241345491374</v>
+        <v>0.04939939662522316</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1099806990319565</v>
+        <v>0.1061559279642991</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -8316,19 +8316,19 @@
         <v>32302</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23776</v>
+        <v>23138</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44749</v>
+        <v>45399</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0748150776950401</v>
+        <v>0.07481507769504009</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05506942264929694</v>
+        <v>0.05358968326379231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1036452227981793</v>
+        <v>0.1051498321559511</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>115116</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>100839</v>
+        <v>101122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>130199</v>
+        <v>129908</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4267931485528962</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3738617622904689</v>
+        <v>0.3749123056552577</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4827157991633713</v>
+        <v>0.4816372899649102</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>234</v>
@@ -8441,19 +8441,19 @@
         <v>111090</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100456</v>
+        <v>98907</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>124411</v>
+        <v>123842</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.421847125997765</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3814665824553614</v>
+        <v>0.3755834021851941</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4724331200903794</v>
+        <v>0.4702707000093603</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>415</v>
@@ -8462,19 +8462,19 @@
         <v>226205</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>208840</v>
+        <v>205474</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>246296</v>
+        <v>243167</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4243497433459281</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3917729649789565</v>
+        <v>0.3854585064735142</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4620388130325582</v>
+        <v>0.4561688864405605</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>154606</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139523</v>
+        <v>139814</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>168883</v>
+        <v>168600</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5732068514471037</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5172842008366287</v>
+        <v>0.5183627100350899</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6261382377095313</v>
+        <v>0.6250876943447424</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -8512,19 +8512,19 @@
         <v>152251</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>138930</v>
+        <v>139499</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162885</v>
+        <v>164434</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.578152874002235</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5275668799096208</v>
+        <v>0.5297292999906398</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6185334175446385</v>
+        <v>0.6244165978148059</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>413</v>
@@ -8533,19 +8533,19 @@
         <v>306858</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>286767</v>
+        <v>289896</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>324223</v>
+        <v>327589</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5756502566540719</v>
+        <v>0.5756502566540718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5379611869674416</v>
+        <v>0.5438311135594399</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6082270350210432</v>
+        <v>0.6145414935264862</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>469497</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>438057</v>
+        <v>442225</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>496292</v>
+        <v>500293</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6643747723022811</v>
+        <v>0.6643747723022814</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6198840479265028</v>
+        <v>0.6257822325084244</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7022913645420382</v>
+        <v>0.7079537559644363</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>643</v>
@@ -8658,19 +8658,19 @@
         <v>501340</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>474846</v>
+        <v>476990</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>525492</v>
+        <v>525647</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6636800229231857</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6286072679564826</v>
+        <v>0.6314456920557679</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6956524123995148</v>
+        <v>0.6958576658220116</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1048</v>
@@ -8679,19 +8679,19 @@
         <v>970837</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>929662</v>
+        <v>933543</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1009783</v>
+        <v>1007009</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6640158225296657</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6358539854391018</v>
+        <v>0.6385079132075955</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6906533447273755</v>
+        <v>0.6887564134131154</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>237178</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210383</v>
+        <v>206382</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>268618</v>
+        <v>264450</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3356252276977187</v>
+        <v>0.3356252276977188</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2977086354579619</v>
+        <v>0.2920462440355637</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3801159520734975</v>
+        <v>0.3742177674915756</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>299</v>
@@ -8729,19 +8729,19 @@
         <v>254054</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>229902</v>
+        <v>229747</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>280548</v>
+        <v>278404</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3363199770768142</v>
+        <v>0.3363199770768143</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.304347587600485</v>
+        <v>0.3041423341779885</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3713927320435172</v>
+        <v>0.3685543079442319</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>483</v>
@@ -8750,19 +8750,19 @@
         <v>491232</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>452286</v>
+        <v>455060</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>532407</v>
+        <v>528526</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3359841774703343</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3093466552726244</v>
+        <v>0.3112435865868845</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3641460145608983</v>
+        <v>0.3614920867924044</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>681061</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>656295</v>
+        <v>655607</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>701667</v>
+        <v>701836</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8576006426271792</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8264154499995952</v>
+        <v>0.8255485840964689</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8835480957943617</v>
+        <v>0.883761271789526</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>941</v>
@@ -8875,19 +8875,19 @@
         <v>728874</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>711327</v>
+        <v>711211</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>746178</v>
+        <v>745925</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8802451459002586</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8590539046123113</v>
+        <v>0.8589147531814477</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9011428418181565</v>
+        <v>0.9008377203321449</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1606</v>
@@ -8896,19 +8896,19 @@
         <v>1409935</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1379348</v>
+        <v>1378396</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1436496</v>
+        <v>1438059</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8691594233873624</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8503042788412914</v>
+        <v>0.8497174258377219</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8855330395796513</v>
+        <v>0.8864966623552222</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>113086</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>92480</v>
+        <v>92311</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>137852</v>
+        <v>138540</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1423993573728209</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1164519042056385</v>
+        <v>0.1162387282104745</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1735845500004052</v>
+        <v>0.1744514159035312</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>117</v>
@@ -8946,19 +8946,19 @@
         <v>99161</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>81857</v>
+        <v>82110</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>116708</v>
+        <v>116824</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1197548540997414</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09885715818184342</v>
+        <v>0.09916227966785499</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1409460953876887</v>
+        <v>0.1410852468185524</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>211</v>
@@ -8967,19 +8967,19 @@
         <v>212247</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>185686</v>
+        <v>184123</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>242834</v>
+        <v>243786</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1308405766126376</v>
+        <v>0.1308405766126375</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1144669604203487</v>
+        <v>0.113503337644778</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1496957211587087</v>
+        <v>0.1502825741622781</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>2238205</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2173128</v>
+        <v>2169424</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2298644</v>
+        <v>2305912</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6432952188275232</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6245911562373818</v>
+        <v>0.6235266547119697</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6606664978627604</v>
+        <v>0.6627552828603717</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3545</v>
@@ -9092,19 +9092,19 @@
         <v>2392335</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2340942</v>
+        <v>2336996</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2451871</v>
+        <v>2442346</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.6531773864581415</v>
+        <v>0.6531773864581414</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6391457221643948</v>
+        <v>0.6380684252720714</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6694325958565666</v>
+        <v>0.6668319240651485</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5765</v>
@@ -9113,19 +9113,19 @@
         <v>4630539</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4545311</v>
+        <v>4548401</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4721139</v>
+        <v>4713356</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6483631387211735</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6364295694983511</v>
+        <v>0.6368622459084096</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6610489075515249</v>
+        <v>0.6599590698399581</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1241076</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1180637</v>
+        <v>1173369</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1306153</v>
+        <v>1309857</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3567047811724767</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3393335021372396</v>
+        <v>0.3372447171396288</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3754088437626181</v>
+        <v>0.3764733452880303</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1709</v>
@@ -9163,19 +9163,19 @@
         <v>1270276</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1210740</v>
+        <v>1220265</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1321669</v>
+        <v>1325615</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3468226135418585</v>
+        <v>0.3468226135418584</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3305674041434335</v>
+        <v>0.3331680759348513</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3608542778356052</v>
+        <v>0.3619315747279285</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2809</v>
@@ -9184,19 +9184,19 @@
         <v>2511352</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2420752</v>
+        <v>2428535</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2596580</v>
+        <v>2593490</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3516368612788265</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3389510924484757</v>
+        <v>0.3400409301600418</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3635704305016489</v>
+        <v>0.3631377540915906</v>
       </c>
     </row>
     <row r="30">
